--- a/test/data/delim.xlsx
+++ b/test/data/delim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Masterplan\.julia\dev\XLSXasJSON\test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD8A62B-3397-4B14-8DA4-3F1D86964597}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0916ACA8-6A8B-494B-8820-8AEEE73F9A17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{1479F74D-488D-4335-8456-3C8493E49DC9}"/>
   </bookViews>
@@ -33,18 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Array_1()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Array_2(Int)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>a,b,c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,6 +54,18 @@
   </si>
   <si>
     <t>7;8;9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Array_1()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Array_2(Int)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,20 +428,20 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -449,10 +449,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -460,10 +460,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -471,10 +471,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/test/data/delim.xlsx
+++ b/test/data/delim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Masterplan\.julia\dev\XLSXasJSON\test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0916ACA8-6A8B-494B-8820-8AEEE73F9A17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7136D244-A55F-4285-B70F-9EFE0063DEBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{1479F74D-488D-4335-8456-3C8493E49DC9}"/>
   </bookViews>
@@ -61,11 +61,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Array_1()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Array_2(Int)</t>
+    <t>/Array_1::Vector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Array_2::Vector{Int}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,7 +428,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
